--- a/tables/abstract_XML_matrix.xlsx
+++ b/tables/abstract_XML_matrix.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,131 +568,105 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>"en</t>
+          <t>"en"</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>"en"</t>
+          <t>"en","nl"</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>"en","nl"</t>
+          <t>"es"</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>"es"</t>
+          <t>"pt"</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>"pt"</t>
+          <t>"tr"</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>"tr"</t>
+          <t>"tr","en"</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>"tr","en"</t>
+          <t>"zh"</t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
         <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>"zh"</t>
+          <t>No</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
         <v>225</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
